--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-FC-funderingsconstructies.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-FC-funderingsconstructies.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{40323FE1-2930-4461-9133-0A96DFC41883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{51DF0CF5-F1F6-4564-BFC4-0A71B6D2CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DB148A53-1588-47EB-9945-6C48CB01DFF9}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{E828B283-9026-4172-B319-497E296A82EC}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-FC-funderi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-FC-funderi'!$A$1:$BS$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-FC-funderi'!$A$1:$BS$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="153">
   <si>
     <t>objectURI</t>
   </si>
@@ -238,22 +238,106 @@
     <t>vrkl_kort</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2010e285-3998-4277-ae01-a25c57ca5768</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0d5581ed-6b1d-4d66-b59b-0be0e8dbe9d8</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>PAAL_BETON</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2743e487-3a59-4760-b0d5-01b32e47e416</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3e9559db-2be5-4d36-a244-a0e9617e067e</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/effa8cb2-00d4-44c4-89c3-7a6368eaab69</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cf718540-a6e5-4550-899c-e01d5fee1282</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/630df17c-028d-4983-90ba-048dfe551015</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/acc772c2-bc06-4937-91a4-017342e5112c</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f14aa137-98dc-41ad-8dc5-fad94cb489e4</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/270c7274-5fc6-4b2c-804f-0eeafcef2cd8</t>
+  </si>
+  <si>
+    <t>V-CONTINUOUS-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bcf58610-d495-40af-89ad-54b5f180881a</t>
+  </si>
+  <si>
+    <t>SFC-PAAL_BETON</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/fee66465-0527-43f6-9511-beccfd149757</t>
+  </si>
+  <si>
+    <t>ACO-BETON</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cb01a44e-db14-4d5a-abff-948156574df2</t>
+  </si>
+  <si>
+    <t>PAAL_HOUT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bd94c067-fc89-49c7-aeab-1b8d19c51ec7</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/96a278ef-84a9-46fc-9484-c51002179780</t>
+  </si>
+  <si>
+    <t>SFC-PAAL_HOUT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d3fb394b-6c4b-4880-83ef-5b24637025e9</t>
+  </si>
+  <si>
+    <t>ACO-HOUT</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/06bf3e79-8fc0-466e-b8c6-bde382a45c23</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0d5581ed-6b1d-4d66-b59b-0be0e8dbe9d8</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>KESP</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6bbb1a7d-0338-4dd1-b39c-bbd661a341c5</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d4e7adc2-9136-41fa-a308-1ec441d304f1</t>
@@ -262,132 +346,15 @@
     <t>SFC-KESP</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/fee66465-0527-43f6-9511-beccfd149757</t>
-  </si>
-  <si>
-    <t>ACO-BETON</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/2010e285-3998-4277-ae01-a25c57ca5768</t>
-  </si>
-  <si>
-    <t>PAAL_BETON</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/861ff8ae-02c5-4cdc-b7e9-379d36435ecc</t>
-  </si>
-  <si>
-    <t>V-SFC-PAAL_BETON_PREFAB_02-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/481ec7cf-3bcd-4d54-96d8-4a22fa70e61b</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_01-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a5ed8d0d-e02a-49b9-af7c-1d61d2162c70</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_08-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d8d623cf-b680-4606-9d5c-44301cd0ca82</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_02-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/54b78323-9d0c-4dc3-a391-2e9c51bdd245</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_07-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/abbee38d-c1ff-4b9a-9d49-5d6cd781bbd2</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_03-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e6f196d0-a9c2-4676-b3f8-5ae55d498545</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_09-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ed57aeb1-7e62-48cd-b12a-4c3af42af96d</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_06-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4198487b-a02c-4452-ad8c-659833539783</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_10-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/78eb79aa-69b2-45e4-9bdd-0a67a09ce9dd</t>
-  </si>
-  <si>
-    <t>V-SFC-PAAL_BETON_PREFAB_01-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b3c04ab5-f961-43ef-bcff-f7e122d89e05</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_05-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a8be0896-e5eb-41cd-b9fe-35cd9a1164f7</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_BETON_PREFAB_04-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cb01a44e-db14-4d5a-abff-948156574df2</t>
-  </si>
-  <si>
-    <t>PAAL_HOUT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1d375d4a-311c-475b-83a5-a50945e27fa1</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_HOUT_01-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d3fb394b-6c4b-4880-83ef-5b24637025e9</t>
-  </si>
-  <si>
-    <t>ACO-HOUT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e830a7a6-cf34-4996-abea-38faacf65e08</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_HOUT_02-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cc5744f8-a111-4e39-bf66-931e308afd2c</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_HOUT_03-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/90ab676b-0b38-41e6-aa6d-a5f1fd2cc642</t>
-  </si>
-  <si>
-    <t>V-SFC-PAAL_HOUT_01-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/b3a3ec5f-13bd-4de5-9871-98680cd016ab</t>
   </si>
   <si>
     <t>DAMWAND_BETON</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2b9310ca-4c6e-4276-a8f2-35b06693c491</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/db63baaf-b767-45d5-9028-0a50dd1bcf03</t>
   </si>
   <si>
@@ -412,34 +379,22 @@
     <t>DAMWAND_STAAL</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/965f6bed-a894-4d35-974b-672a44fee398</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c1457843-d071-4dec-a735-2b5d29cf8717</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/96594b66-a988-4a5c-81a7-3f26e09f53f3</t>
   </si>
   <si>
     <t>PAAL_STAALBUIS</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/686864b5-e6a0-4872-a2cb-efb4cc922687</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_STAAL_01-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a340ca66-a838-474e-b7e6-c750d0858be6</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_STAAL_03-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8d2ce365-8f0a-4815-ba14-81fc5c1dc2a2</t>
-  </si>
-  <si>
-    <t>SFC-PAAL_STAAL_02-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3b0f4f56-0211-4b88-bafc-3819fa051c2f</t>
-  </si>
-  <si>
-    <t>V-SFC-PAAL_STAAL_01-SO</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/759421ad-23bb-4c34-8969-0db0e5474f72</t>
+  </si>
+  <si>
+    <t>SFC-PAAL_STAAL</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3f4caa4c-de15-48ae-94c7-716aaa8ce71e</t>
@@ -472,7 +427,16 @@
     <t>PAAL_BETON_IN DE GRONDGEVORMD_TREKPAAL</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/2b9310ca-4c6e-4276-a8f2-35b06693c491</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/aa84a15a-bc8f-4de6-929e-ceebe0197203</t>
+  </si>
+  <si>
+    <t>DAMWAND_ANKER_GROUT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/42cf5700-3da1-4251-9230-9f727a5401b8</t>
+  </si>
+  <si>
+    <t>PAAL_STAALBUIS_SCHROEFPAAL</t>
   </si>
   <si>
     <t>DAMWAND</t>
@@ -490,6 +454,15 @@
     <t>LEVENSDUURVERLENGENDE MAATREGEL</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6aa127ab-804d-4c1b-8182-76b31acb838e</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/5f86d069-e38a-406c-b82b-6889047ba877</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/0c946d14-e533-47a0-9d4f-518793b1255a</t>
   </si>
   <si>
@@ -502,9 +475,6 @@
     <t>OPSTAAL</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/2743e487-3a59-4760-b0d5-01b32e47e416</t>
-  </si>
-  <si>
     <t>PAAL</t>
   </si>
   <si>
@@ -512,18 +482,6 @@
   </si>
   <si>
     <t>REPARATIES</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/aa84a15a-bc8f-4de6-929e-ceebe0197203</t>
-  </si>
-  <si>
-    <t>DAMWAND_ANKER_GROUT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/42cf5700-3da1-4251-9230-9f727a5401b8</t>
-  </si>
-  <si>
-    <t>PAAL_STAALBUIS_SCHROEFPAAL</t>
   </si>
 </sst>
 </file>
@@ -1383,19 +1341,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E0462-C00A-4FC4-B9AA-3DCE502DFC10}">
-  <dimension ref="A1:BS40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20119F0E-6C2E-40DE-8662-7B4C71146419}">
+  <dimension ref="A1:BS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO40" sqref="BO40"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="8" max="66" width="0" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1615,7 +1571,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1623,19 +1579,190 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
+      <c r="D2">
+        <v>2758</v>
+      </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2">
+        <v>252</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2">
+        <v>254</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2">
+        <v>252</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2">
+        <v>254</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2">
+        <v>60</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2">
+        <v>252</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2">
+        <v>30</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2">
+        <v>254</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC2">
+        <v>60</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE2">
+        <v>252</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2">
+        <v>30</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2">
+        <v>10</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2">
+        <v>254</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1643,25 +1770,202 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
+      <c r="D3">
+        <v>2762</v>
+      </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3">
+        <v>2758</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3">
+        <v>252</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3">
+        <v>254</v>
+      </c>
+      <c r="V3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3">
+        <v>252</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3">
+        <v>254</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO3">
+        <v>60</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3">
+        <v>252</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS3">
+        <v>30</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW3">
+        <v>254</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC3">
+        <v>60</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE3">
+        <v>252</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3">
+        <v>30</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI3">
+        <v>10</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3">
+        <v>254</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>90</v>
       </c>
       <c r="BQ3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BR3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -1669,19 +1973,196 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
+      <c r="D4">
+        <v>2763</v>
+      </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>2762</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4">
+        <v>252</v>
+      </c>
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4">
+        <v>254</v>
+      </c>
+      <c r="V4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4">
+        <v>60</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4">
+        <v>252</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4">
+        <v>254</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO4">
+        <v>60</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4">
+        <v>252</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS4">
+        <v>30</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW4">
+        <v>254</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC4">
+        <v>60</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE4">
+        <v>252</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG4">
+        <v>30</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI4">
+        <v>10</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4">
+        <v>254</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1689,25 +2170,202 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
+      <c r="D5">
+        <v>2761</v>
+      </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5">
+        <v>2758</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5">
+        <v>252</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5">
+        <v>254</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5">
+        <v>40</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5">
+        <v>254</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5">
+        <v>90</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5">
+        <v>254</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO5">
+        <v>40</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5">
+        <v>252</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS5">
+        <v>90</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW5">
+        <v>254</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC5">
+        <v>40</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE5">
+        <v>252</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG5">
+        <v>90</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI5">
+        <v>10</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5">
+        <v>254</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>90</v>
       </c>
       <c r="BQ5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -1715,25 +2373,202 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
+      <c r="D6">
+        <v>2759</v>
+      </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6">
+        <v>2758</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>252</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6">
+        <v>254</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC6">
+        <v>254</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG6">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6">
+        <v>254</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6">
+        <v>30</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6">
+        <v>252</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6">
+        <v>40</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU6">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW6">
+        <v>254</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC6">
+        <v>30</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE6">
+        <v>252</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG6">
+        <v>40</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI6">
+        <v>10</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6">
+        <v>254</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>90</v>
       </c>
       <c r="BQ6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BR6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -1741,25 +2576,202 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
+      <c r="D7">
+        <v>2760</v>
+      </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7">
+        <v>2758</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7">
+        <v>140</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7">
+        <v>252</v>
+      </c>
+      <c r="P7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7">
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7">
+        <v>254</v>
+      </c>
+      <c r="V7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7">
+        <v>140</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC7">
+        <v>252</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE7">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7">
+        <v>254</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO7">
+        <v>140</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ7">
+        <v>252</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS7">
+        <v>130</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU7">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW7">
+        <v>254</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC7">
+        <v>140</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE7">
+        <v>252</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG7">
+        <v>130</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI7">
+        <v>10</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7">
+        <v>254</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>90</v>
       </c>
       <c r="BQ7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="BR7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -1767,19 +2779,190 @@
       <c r="C8" t="s">
         <v>73</v>
       </c>
+      <c r="D8">
+        <v>2757</v>
+      </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8">
+        <v>252</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8">
+        <v>254</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8">
+        <v>60</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC8">
+        <v>252</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8">
+        <v>30</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8">
+        <v>254</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO8">
+        <v>60</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ8">
+        <v>252</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8">
+        <v>30</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU8">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW8">
+        <v>254</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC8">
+        <v>60</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE8">
+        <v>252</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG8">
+        <v>30</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI8">
+        <v>10</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8">
+        <v>254</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1787,19 +2970,190 @@
       <c r="C9" t="s">
         <v>73</v>
       </c>
+      <c r="D9">
+        <v>2765</v>
+      </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9">
+        <v>252</v>
+      </c>
+      <c r="P9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9">
+        <v>254</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9">
+        <v>252</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE9">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9">
+        <v>254</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO9">
+        <v>30</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ9">
+        <v>252</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS9">
+        <v>60</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW9">
+        <v>254</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC9">
+        <v>30</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE9">
+        <v>252</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG9">
+        <v>60</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI9">
+        <v>10</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9">
+        <v>254</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -1807,31 +3161,202 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
+      <c r="D10">
+        <v>2766</v>
+      </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10">
+        <v>252</v>
+      </c>
+      <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10">
+        <v>254</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10">
+        <v>254</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE10">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10">
+        <v>254</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO10">
+        <v>60</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ10">
+        <v>252</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS10">
+        <v>30</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU10">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW10">
+        <v>254</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC10">
+        <v>60</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE10">
+        <v>252</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG10">
+        <v>30</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI10">
+        <v>10</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10">
+        <v>254</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>90</v>
       </c>
       <c r="BO10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="BP10" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="BQ10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR10" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -1839,19 +3364,190 @@
       <c r="C11" t="s">
         <v>73</v>
       </c>
+      <c r="D11">
+        <v>2768</v>
+      </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11">
+        <v>170</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>172</v>
+      </c>
+      <c r="P11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11">
+        <v>170</v>
+      </c>
+      <c r="R11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11">
+        <v>170</v>
+      </c>
+      <c r="T11" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11">
+        <v>253</v>
+      </c>
+      <c r="V11" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA11">
+        <v>170</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC11">
+        <v>172</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE11">
+        <v>170</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG11">
+        <v>170</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI11">
+        <v>253</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO11">
+        <v>170</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ11">
+        <v>172</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS11">
+        <v>170</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU11">
+        <v>170</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW11">
+        <v>253</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC11">
+        <v>170</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE11">
+        <v>172</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG11">
+        <v>170</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI11">
+        <v>170</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK11">
+        <v>253</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -1859,19 +3555,190 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
+      <c r="D12">
+        <v>2764</v>
+      </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12">
+        <v>252</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12">
+        <v>130</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12">
+        <v>254</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12">
+        <v>252</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE12">
+        <v>130</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12">
+        <v>254</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO12">
+        <v>40</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ12">
+        <v>252</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS12">
+        <v>130</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU12">
+        <v>10</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW12">
+        <v>254</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC12">
+        <v>40</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE12">
+        <v>252</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG12">
+        <v>130</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI12">
+        <v>10</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12">
+        <v>254</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -1879,19 +3746,190 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
+      <c r="D13">
+        <v>2747</v>
+      </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13">
+        <v>252</v>
+      </c>
+      <c r="P13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13">
+        <v>90</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13">
+        <v>254</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13">
+        <v>252</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE13">
+        <v>90</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI13">
+        <v>254</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO13">
+        <v>40</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ13">
+        <v>252</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS13">
+        <v>90</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW13">
+        <v>254</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC13">
+        <v>40</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE13">
+        <v>252</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG13">
+        <v>90</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI13">
+        <v>10</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13">
+        <v>254</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -1899,31 +3937,208 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
+      <c r="D14">
+        <v>2750</v>
+      </c>
       <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>2747</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14">
+        <v>252</v>
+      </c>
+      <c r="P14" t="s">
         <v>82</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
+      <c r="Q14">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>254</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC14">
+        <v>254</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE14">
+        <v>90</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14">
+        <v>254</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO14">
+        <v>40</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ14">
+        <v>252</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS14">
+        <v>90</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU14">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW14">
+        <v>254</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC14">
+        <v>40</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE14">
+        <v>252</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG14">
+        <v>90</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI14">
+        <v>10</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14">
+        <v>254</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>90</v>
       </c>
       <c r="BO14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BP14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="BQ14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -1931,31 +4146,202 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
+      <c r="D15">
+        <v>2752</v>
+      </c>
       <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15">
+        <v>2750</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15">
+        <v>252</v>
+      </c>
+      <c r="P15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO15" t="s">
+      <c r="Q15">
+        <v>90</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15">
+        <v>254</v>
+      </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC15">
+        <v>254</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE15">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15">
+        <v>254</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO15">
+        <v>40</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15">
+        <v>252</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS15">
+        <v>90</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW15">
+        <v>254</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC15">
+        <v>40</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE15">
+        <v>252</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG15">
+        <v>90</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI15">
+        <v>10</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK15">
+        <v>254</v>
+      </c>
+      <c r="BL15" t="s">
         <v>89</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="BM15" t="s">
         <v>90</v>
       </c>
       <c r="BQ15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -1963,31 +4349,202 @@
       <c r="C16" t="s">
         <v>73</v>
       </c>
+      <c r="D16">
+        <v>2753</v>
+      </c>
       <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16">
+        <v>2752</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16">
+        <v>252</v>
+      </c>
+      <c r="P16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO16" t="s">
+      <c r="Q16">
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16">
+        <v>254</v>
+      </c>
+      <c r="V16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16">
+        <v>254</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16">
+        <v>90</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16">
+        <v>254</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO16">
+        <v>40</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ16">
+        <v>252</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS16">
+        <v>90</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU16">
+        <v>10</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW16">
+        <v>254</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC16">
+        <v>40</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE16">
+        <v>252</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG16">
+        <v>90</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI16">
+        <v>10</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16">
+        <v>254</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>93</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BR16" t="s">
         <v>94</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -1995,31 +4552,202 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
+      <c r="D17">
+        <v>2751</v>
+      </c>
       <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>2750</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>252</v>
+      </c>
+      <c r="P17" t="s">
         <v>82</v>
       </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>106</v>
+      <c r="Q17">
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17">
+        <v>254</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17">
+        <v>254</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE17">
+        <v>90</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17">
+        <v>254</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO17">
+        <v>40</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ17">
+        <v>252</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS17">
+        <v>90</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU17">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW17">
+        <v>254</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC17">
+        <v>40</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE17">
+        <v>252</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG17">
+        <v>90</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI17">
+        <v>10</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK17">
+        <v>254</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>90</v>
       </c>
       <c r="BQ17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR17" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -2027,31 +4755,202 @@
       <c r="C18" t="s">
         <v>73</v>
       </c>
+      <c r="D18">
+        <v>2754</v>
+      </c>
       <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>2750</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18">
+        <v>252</v>
+      </c>
+      <c r="P18" t="s">
         <v>82</v>
       </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>103</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>104</v>
+      <c r="Q18">
+        <v>90</v>
+      </c>
+      <c r="R18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U18">
+        <v>254</v>
+      </c>
+      <c r="V18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC18">
+        <v>254</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE18">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18">
+        <v>254</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO18">
+        <v>40</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ18">
+        <v>252</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS18">
+        <v>90</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU18">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW18">
+        <v>254</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC18">
+        <v>40</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE18">
+        <v>252</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG18">
+        <v>90</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI18">
+        <v>10</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18">
+        <v>254</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>90</v>
       </c>
       <c r="BQ18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BR18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2059,31 +4958,208 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="D19">
+        <v>2748</v>
+      </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>2747</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19">
+        <v>252</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U19">
+        <v>254</v>
+      </c>
+      <c r="V19" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC19">
+        <v>252</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19">
+        <v>254</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO19">
+        <v>30</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19">
+        <v>252</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19">
+        <v>40</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU19">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW19">
+        <v>254</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC19">
+        <v>30</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE19">
+        <v>252</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG19">
+        <v>40</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI19">
+        <v>10</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19">
+        <v>254</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>90</v>
       </c>
       <c r="BO19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BP19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BQ19" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="BR19" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2091,31 +5167,202 @@
       <c r="C20" t="s">
         <v>73</v>
       </c>
+      <c r="D20">
+        <v>2749</v>
+      </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <v>2748</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20">
+        <v>252</v>
+      </c>
+      <c r="P20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20">
+        <v>254</v>
+      </c>
+      <c r="V20" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA20">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC20">
+        <v>252</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20">
+        <v>254</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO20">
+        <v>30</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ20">
+        <v>252</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20">
+        <v>40</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU20">
+        <v>10</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW20">
+        <v>254</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC20">
+        <v>30</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE20">
+        <v>252</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG20">
+        <v>40</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI20">
+        <v>10</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK20">
+        <v>254</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>90</v>
       </c>
       <c r="BQ20" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="BR20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2123,31 +5370,202 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
+      <c r="D21">
+        <v>2755</v>
+      </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>2747</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21">
+        <v>140</v>
+      </c>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21">
+        <v>252</v>
+      </c>
+      <c r="P21" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21">
+        <v>130</v>
+      </c>
+      <c r="R21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21">
+        <v>254</v>
+      </c>
+      <c r="V21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA21">
+        <v>140</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC21">
+        <v>252</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE21">
+        <v>130</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21">
+        <v>254</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO21">
+        <v>140</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ21">
+        <v>252</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS21">
+        <v>130</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU21">
+        <v>10</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW21">
+        <v>254</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC21">
+        <v>140</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE21">
+        <v>252</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG21">
+        <v>130</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI21">
+        <v>10</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK21">
+        <v>254</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>90</v>
       </c>
       <c r="BO21" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="BP21" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -2155,31 +5573,196 @@
       <c r="C22" t="s">
         <v>73</v>
       </c>
+      <c r="D22">
+        <v>2756</v>
+      </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>2755</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
-      <c r="BR22" t="s">
-        <v>80</v>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22">
+        <v>140</v>
+      </c>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>252</v>
+      </c>
+      <c r="P22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22">
+        <v>130</v>
+      </c>
+      <c r="R22" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22">
+        <v>254</v>
+      </c>
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" t="s">
+        <v>86</v>
+      </c>
+      <c r="X22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA22">
+        <v>140</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC22">
+        <v>252</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE22">
+        <v>130</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG22">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22">
+        <v>254</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO22">
+        <v>140</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ22">
+        <v>252</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS22">
+        <v>130</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU22">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW22">
+        <v>254</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC22">
+        <v>140</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE22">
+        <v>252</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG22">
+        <v>130</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI22">
+        <v>10</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK22">
+        <v>254</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -2187,498 +5770,191 @@
       <c r="C23" t="s">
         <v>73</v>
       </c>
+      <c r="D23">
+        <v>2767</v>
+      </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
         <v>79</v>
       </c>
-      <c r="BR23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="L23" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="M23">
+        <v>170</v>
+      </c>
+      <c r="N23" t="s">
         <v>144</v>
       </c>
-      <c r="H28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>79</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>115</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>117</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>118</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="O23">
+        <v>172</v>
+      </c>
+      <c r="P23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23">
+        <v>170</v>
+      </c>
+      <c r="R23" t="s">
+        <v>143</v>
+      </c>
+      <c r="S23">
+        <v>170</v>
+      </c>
+      <c r="T23" t="s">
         <v>145</v>
       </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>131</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO37" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO38" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s">
-        <v>76</v>
+      <c r="U23">
+        <v>253</v>
+      </c>
+      <c r="V23" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA23">
+        <v>170</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC23">
+        <v>172</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE23">
+        <v>170</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG23">
+        <v>170</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI23">
+        <v>253</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO23">
+        <v>170</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ23">
+        <v>172</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS23">
+        <v>170</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU23">
+        <v>170</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW23">
+        <v>253</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC23">
+        <v>170</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE23">
+        <v>172</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG23">
+        <v>170</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI23">
+        <v>170</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK23">
+        <v>253</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS40" xr:uid="{1D6E0462-C00A-4FC4-B9AA-3DCE502DFC10}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS40">
-      <sortCondition ref="E1:E40"/>
+  <autoFilter ref="A1:BS23" xr:uid="{20119F0E-6C2E-40DE-8662-7B4C71146419}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS23">
+      <sortCondition ref="E1:E23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
